--- a/generated_docs/WR_89774377_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6667.38</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>51.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>76.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>127.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>292.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="13" t="inlineStr"/>
       <c r="H24" s="14" t="n">
-        <v>92.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,18 +960,18 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
@@ -981,20 +981,20 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F26" s="13" t="n">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>788.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>CON-40-AAA-1-B</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E27" s="9" t="inlineStr">
@@ -1024,22 +1024,22 @@
         </is>
       </c>
       <c r="F27" s="10" t="n">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>601.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CON-40-AAA-1-B</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E28" s="12" t="inlineStr">
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="F28" s="13" t="n">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>353.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>CON-40-AAA-1-B</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,26 +1083,26 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F29" s="10" t="n">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>725.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B30" s="12" t="inlineStr">
@@ -1126,17 +1126,17 @@
         </is>
       </c>
       <c r="F30" s="13" t="n">
-        <v>394</v>
+        <v>151</v>
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>921.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
@@ -1160,26 +1160,162 @@
         </is>
       </c>
       <c r="F31" s="10" t="n">
-        <v>931</v>
+        <v>310</v>
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>2178.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="inlineStr">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr"/>
+      <c r="H32" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>394</v>
+      </c>
+      <c r="G33" s="10" t="inlineStr"/>
+      <c r="H33" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E34" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>931</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr"/>
+      <c r="H34" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H32" s="16" t="n">
-        <v>6539.580000000001</v>
+      <c r="H36" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>

--- a/generated_docs/WR_89774377_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>6667.38</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>51.05</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="18">
@@ -809,7 +805,7 @@
         </is>
       </c>
       <c r="H18" s="16" t="n">
-        <v>0</v>
+        <v>127.8</v>
       </c>
     </row>
     <row r="21">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="10" t="inlineStr"/>
       <c r="H23" s="11" t="n">
-        <v>0</v>
+        <v>292.5</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="13" t="inlineStr"/>
       <c r="H24" s="14" t="n">
-        <v>0</v>
+        <v>92.88</v>
       </c>
     </row>
     <row r="25">
@@ -960,18 +956,18 @@
       </c>
       <c r="G25" s="10" t="inlineStr"/>
       <c r="H25" s="11" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
@@ -981,20 +977,20 @@
       </c>
       <c r="D26" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F26" s="13" t="n">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="G26" s="13" t="inlineStr"/>
       <c r="H26" s="14" t="n">
-        <v>0</v>
+        <v>788.58</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CON-40-AAA-1-B</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
@@ -1015,7 +1011,7 @@
       </c>
       <c r="D27" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E27" s="9" t="inlineStr">
@@ -1024,22 +1020,22 @@
         </is>
       </c>
       <c r="F27" s="10" t="n">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="11" t="n">
-        <v>0</v>
+        <v>601.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>CON-40-AAA-1-B</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
@@ -1049,7 +1045,7 @@
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E28" s="12" t="inlineStr">
@@ -1058,22 +1054,22 @@
         </is>
       </c>
       <c r="F28" s="13" t="n">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="G28" s="13" t="inlineStr"/>
       <c r="H28" s="14" t="n">
-        <v>0</v>
+        <v>353.34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-40-AAA-1-B</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
@@ -1083,26 +1079,26 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F29" s="10" t="n">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="G29" s="10" t="inlineStr"/>
       <c r="H29" s="11" t="n">
-        <v>0</v>
+        <v>725.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B30" s="12" t="inlineStr">
@@ -1126,17 +1122,17 @@
         </is>
       </c>
       <c r="F30" s="13" t="n">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="G30" s="13" t="inlineStr"/>
       <c r="H30" s="14" t="n">
-        <v>0</v>
+        <v>921.96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B31" s="9" t="inlineStr">
@@ -1160,162 +1156,26 @@
         </is>
       </c>
       <c r="F31" s="10" t="n">
-        <v>310</v>
+        <v>931</v>
       </c>
       <c r="G31" s="10" t="inlineStr"/>
       <c r="H31" s="11" t="n">
-        <v>0</v>
+        <v>2178.54</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B32" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
-        <v>394</v>
-      </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B34" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>931</v>
-      </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A32" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>0</v>
+      <c r="H32" s="16" t="n">
+        <v>6539.580000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A18:G18"/>
